--- a/ox-resource/I18N/zh_CN/BattleBuff.xlsx
+++ b/ox-resource/I18N/zh_CN/BattleBuff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\share\docs\策划文档\数据表格\策划表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\github\ox\ox-resource\I18N\zh_CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -745,10 +745,10 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,7 +971,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>250000411</v>
+        <v>250000141</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>34</v>
@@ -1017,7 +1017,7 @@
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>10</v>
       </c>
       <c r="D7">
@@ -2902,7 +2902,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>